--- a/test/schema/oracle/gameAdmin3.xlsx
+++ b/test/schema/oracle/gameAdmin3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Domain</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,11 +343,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -377,12 +382,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 5" xfId="3"/>
@@ -784,7 +792,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -842,7 +850,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -995,7 +1003,9 @@
       <c r="B13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
@@ -1009,7 +1019,9 @@
       <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
@@ -1072,7 +1084,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1083,6 +1095,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
